--- a/trackPoDetails.xlsx
+++ b/trackPoDetails.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,34 +529,34 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-01-08T07:14:25.335Z</t>
+          <t>2024-01-08T12:45:10.676Z</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>8549.49</v>
+        <v>5753.5</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1124352</v>
+        <v>1119911</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>COMBITIDE 250 OCTACAPS</t>
+          <t>DAZTOR20</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>275.79</v>
+        <v>115.07</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>8549.49</v>
+        <v>5753.5</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
@@ -569,14 +569,14 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8549.49</v>
+        <v>5753.5</v>
       </c>
       <c r="P2" t="n">
-        <v>9575.43</v>
+        <v>6443.92</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>leela</t>
+          <t>Rajastan</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -589,34 +589,34 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-08T07:14:25.335Z</t>
+          <t>2024-01-08T12:45:10.676Z</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>5432</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1119910</v>
+        <v>1135660</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>DAZTOR10</t>
+          <t>Dextrose Injection IP 5% W/V 100 ML</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>108.64</v>
+        <v>4.77</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>5432</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
@@ -629,14 +629,14 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5432</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>6083.84</v>
+        <v>106.85</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>leela</t>
+          <t>Rajastan</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -649,34 +649,34 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-01-08T07:14:25.335Z</t>
+          <t>2024-01-08T12:45:10.676Z</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>78502.2</v>
+        <v>4680</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1120389</v>
+        <v>1119947</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CEREBROLYSIN10MLINJECTION</t>
+          <t>CARDIVASCR20</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>747.64</v>
+        <v>117</v>
       </c>
       <c r="I4" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>78502.2</v>
+        <v>4680</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
@@ -689,14 +689,14 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>78502.2</v>
+        <v>4680</v>
       </c>
       <c r="P4" t="n">
-        <v>87922.46000000001</v>
+        <v>5241.6</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>leela</t>
+          <t>Rajastan</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -709,34 +709,34 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-01-08T07:14:25.335Z</t>
+          <t>2024-01-08T12:45:10.676Z</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>13835.28</v>
+        <v>2487.9</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1124351</v>
+        <v>1123619</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>COMBIPAT STERILE OPTHALMIC SOLUTION</t>
+          <t>MontekLCKidSyrup</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>135.64</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="J5" t="n">
-        <v>13835.28</v>
+        <v>2487.9</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
@@ -749,77 +749,17 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13835.28</v>
+        <v>2487.9</v>
       </c>
       <c r="P5" t="n">
-        <v>15495.51</v>
+        <v>2786.45</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>leela</t>
+          <t>Rajastan</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
-        <is>
-          <t>upload</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2024-01-08T07:14:25.335Z</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2340</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1119947</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>CARDIVASCR20</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>117</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2340</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2340</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2620.8</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>leela</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
         <is>
           <t>upload</t>
         </is>
